--- a/抽獎名單與設定.xlsx
+++ b/抽獎名單與設定.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\m4095\Documents\Luckdraw_for_All\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\m4095\Documents\Luckdraw_for_All\offline-excel-lucky-draw-board\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -105,9 +105,6 @@
     <t>滾動速度</t>
   </si>
   <si>
-    <t>數字越大滾越快 (建議 1.0 ~ 3.0)</t>
-  </si>
-  <si>
     <t>更新頻率</t>
   </si>
   <si>
@@ -162,8 +159,240 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>001</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>A</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>002</t>
+  </si>
+  <si>
+    <t>003</t>
+  </si>
+  <si>
+    <t>004</t>
+  </si>
+  <si>
+    <t>005</t>
+  </si>
+  <si>
+    <t>006</t>
+  </si>
+  <si>
+    <t>007</t>
+  </si>
+  <si>
+    <t>008</t>
+  </si>
+  <si>
+    <t>009</t>
+  </si>
+  <si>
+    <t>010</t>
+  </si>
+  <si>
+    <t>011</t>
+  </si>
+  <si>
+    <t>012</t>
+  </si>
+  <si>
+    <t>013</t>
+  </si>
+  <si>
+    <t>014</t>
+  </si>
+  <si>
+    <t>015</t>
+  </si>
+  <si>
+    <t>016</t>
+  </si>
+  <si>
+    <t>017</t>
+  </si>
+  <si>
+    <t>018</t>
+  </si>
+  <si>
+    <t>019</t>
+  </si>
+  <si>
+    <t>020</t>
+  </si>
+  <si>
+    <t>021</t>
+  </si>
+  <si>
+    <t>022</t>
+  </si>
+  <si>
+    <t>023</t>
+  </si>
+  <si>
+    <t>024</t>
+  </si>
+  <si>
+    <t>025</t>
+  </si>
+  <si>
+    <t>026</t>
+  </si>
+  <si>
+    <t>027</t>
+  </si>
+  <si>
+    <t>028</t>
+  </si>
+  <si>
+    <t>029</t>
+  </si>
+  <si>
+    <t>030</t>
+  </si>
+  <si>
+    <t>031</t>
+  </si>
+  <si>
+    <t>032</t>
+  </si>
+  <si>
+    <t>B</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>C</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>A01</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>A02</t>
+  </si>
+  <si>
+    <t>A02</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>B02</t>
+  </si>
+  <si>
+    <t>B02</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>C01</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>B01</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>C02</t>
+  </si>
+  <si>
+    <t>C02</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>A03</t>
+  </si>
+  <si>
+    <t>B03</t>
+  </si>
+  <si>
+    <t>C03</t>
+  </si>
+  <si>
+    <t>A04</t>
+  </si>
+  <si>
+    <t>B04</t>
+  </si>
+  <si>
+    <t>C04</t>
+  </si>
+  <si>
+    <t>A05</t>
+  </si>
+  <si>
+    <t>B05</t>
+  </si>
+  <si>
+    <t>C05</t>
+  </si>
+  <si>
+    <t>A06</t>
+  </si>
+  <si>
+    <t>B06</t>
+  </si>
+  <si>
+    <t>C06</t>
+  </si>
+  <si>
+    <t>002</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>003</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <r>
-      <t xml:space="preserve">2026 </t>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF1F1F1F"/>
+        <rFont val="Arial"/>
+        <family val="3"/>
+        <charset val="136"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>數字越大滾越快</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF1F1F1F"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> (</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF1F1F1F"/>
+        <rFont val="Arial"/>
+        <family val="3"/>
+        <charset val="136"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>建議</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF1F1F1F"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> 0.5 ~ 3.0)</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">2026 
+</t>
     </r>
     <r>
       <rPr>
@@ -176,192 +405,6 @@
       </rPr>
       <t>尾牙摸彩</t>
     </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>001</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>A</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>002</t>
-  </si>
-  <si>
-    <t>003</t>
-  </si>
-  <si>
-    <t>004</t>
-  </si>
-  <si>
-    <t>005</t>
-  </si>
-  <si>
-    <t>006</t>
-  </si>
-  <si>
-    <t>007</t>
-  </si>
-  <si>
-    <t>008</t>
-  </si>
-  <si>
-    <t>009</t>
-  </si>
-  <si>
-    <t>010</t>
-  </si>
-  <si>
-    <t>011</t>
-  </si>
-  <si>
-    <t>012</t>
-  </si>
-  <si>
-    <t>013</t>
-  </si>
-  <si>
-    <t>014</t>
-  </si>
-  <si>
-    <t>015</t>
-  </si>
-  <si>
-    <t>016</t>
-  </si>
-  <si>
-    <t>017</t>
-  </si>
-  <si>
-    <t>018</t>
-  </si>
-  <si>
-    <t>019</t>
-  </si>
-  <si>
-    <t>020</t>
-  </si>
-  <si>
-    <t>021</t>
-  </si>
-  <si>
-    <t>022</t>
-  </si>
-  <si>
-    <t>023</t>
-  </si>
-  <si>
-    <t>024</t>
-  </si>
-  <si>
-    <t>025</t>
-  </si>
-  <si>
-    <t>026</t>
-  </si>
-  <si>
-    <t>027</t>
-  </si>
-  <si>
-    <t>028</t>
-  </si>
-  <si>
-    <t>029</t>
-  </si>
-  <si>
-    <t>030</t>
-  </si>
-  <si>
-    <t>031</t>
-  </si>
-  <si>
-    <t>032</t>
-  </si>
-  <si>
-    <t>B</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>C</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>A01</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>A02</t>
-  </si>
-  <si>
-    <t>A02</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>B02</t>
-  </si>
-  <si>
-    <t>B02</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>C01</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>B01</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>C02</t>
-  </si>
-  <si>
-    <t>C02</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>A03</t>
-  </si>
-  <si>
-    <t>B03</t>
-  </si>
-  <si>
-    <t>C03</t>
-  </si>
-  <si>
-    <t>A04</t>
-  </si>
-  <si>
-    <t>B04</t>
-  </si>
-  <si>
-    <t>C04</t>
-  </si>
-  <si>
-    <t>A05</t>
-  </si>
-  <si>
-    <t>B05</t>
-  </si>
-  <si>
-    <t>C05</t>
-  </si>
-  <si>
-    <t>A06</t>
-  </si>
-  <si>
-    <t>B06</t>
-  </si>
-  <si>
-    <t>C06</t>
-  </si>
-  <si>
-    <t>002</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>003</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -683,8 +726,34 @@
   <dxfs count="28">
     <dxf>
       <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="30" formatCode="@"/>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor auto="1"/>
         </patternFill>
       </fill>
     </dxf>
@@ -700,17 +769,148 @@
         <u val="none"/>
         <vertAlign val="baseline"/>
         <sz val="10"/>
-        <color rgb="FF000000"/>
+        <color rgb="FF1F1F1F"/>
         <name val="Arial"/>
         <scheme val="minor"/>
       </font>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="1"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="medium">
+          <color rgb="FF000000"/>
+        </left>
+        <right/>
+        <top style="medium">
+          <color rgb="FF000000"/>
+        </top>
+        <bottom style="medium">
+          <color rgb="FF000000"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color rgb="FF1F1F1F"/>
+        <name val="Arial"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="1"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="medium">
+          <color rgb="FF000000"/>
+        </left>
+        <right style="medium">
+          <color rgb="FF000000"/>
+        </right>
+        <top style="medium">
+          <color rgb="FF000000"/>
+        </top>
+        <bottom style="medium">
+          <color rgb="FF000000"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color rgb="FF1F1F1F"/>
+        <name val="Arial"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="1"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="medium">
+          <color rgb="FF000000"/>
+        </left>
+        <right style="medium">
+          <color rgb="FF000000"/>
+        </right>
+        <top style="medium">
+          <color rgb="FF000000"/>
+        </top>
+        <bottom style="medium">
+          <color rgb="FF000000"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <top style="medium">
+          <color rgb="FF000000"/>
+        </top>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <left style="medium">
+          <color rgb="FF000000"/>
+        </left>
+        <right style="medium">
+          <color rgb="FF000000"/>
+        </right>
+        <top style="medium">
+          <color rgb="FF000000"/>
+        </top>
+        <bottom style="medium">
+          <color rgb="FF000000"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0"/>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <bottom style="medium">
+          <color rgb="FF000000"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color theme="0"/>
+        <name val="Arial"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="1"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="medium">
+          <color rgb="FF000000"/>
+        </left>
+        <right style="medium">
+          <color rgb="FF000000"/>
+        </right>
+        <top/>
+        <bottom/>
+      </border>
     </dxf>
     <dxf>
       <font>
@@ -940,194 +1140,6 @@
       </border>
     </dxf>
     <dxf>
-      <numFmt numFmtId="30" formatCode="@"/>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="10"/>
-        <color rgb="FF1F1F1F"/>
-        <name val="Arial"/>
-        <scheme val="minor"/>
-      </font>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="1"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="medium">
-          <color rgb="FF000000"/>
-        </left>
-        <right/>
-        <top style="medium">
-          <color rgb="FF000000"/>
-        </top>
-        <bottom style="medium">
-          <color rgb="FF000000"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="10"/>
-        <color rgb="FF1F1F1F"/>
-        <name val="Arial"/>
-        <scheme val="minor"/>
-      </font>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="1"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="medium">
-          <color rgb="FF000000"/>
-        </left>
-        <right style="medium">
-          <color rgb="FF000000"/>
-        </right>
-        <top style="medium">
-          <color rgb="FF000000"/>
-        </top>
-        <bottom style="medium">
-          <color rgb="FF000000"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="10"/>
-        <color rgb="FF1F1F1F"/>
-        <name val="Arial"/>
-        <scheme val="minor"/>
-      </font>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="1"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="medium">
-          <color rgb="FF000000"/>
-        </left>
-        <right style="medium">
-          <color rgb="FF000000"/>
-        </right>
-        <top style="medium">
-          <color rgb="FF000000"/>
-        </top>
-        <bottom style="medium">
-          <color rgb="FF000000"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <border outline="0">
-        <top style="medium">
-          <color rgb="FF000000"/>
-        </top>
-      </border>
-    </dxf>
-    <dxf>
-      <border outline="0">
-        <left style="medium">
-          <color rgb="FF000000"/>
-        </left>
-        <right style="medium">
-          <color rgb="FF000000"/>
-        </right>
-        <top style="medium">
-          <color rgb="FF000000"/>
-        </top>
-        <bottom style="medium">
-          <color rgb="FF000000"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0"/>
-    </dxf>
-    <dxf>
-      <border outline="0">
-        <bottom style="medium">
-          <color rgb="FF000000"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="10"/>
-        <color theme="0"/>
-        <name val="Arial"/>
-        <scheme val="minor"/>
-      </font>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="1"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="medium">
-          <color rgb="FF000000"/>
-        </left>
-        <right style="medium">
-          <color rgb="FF000000"/>
-        </right>
-        <top/>
-        <bottom/>
-      </border>
-    </dxf>
-    <dxf>
       <border>
         <top style="thin">
           <color indexed="64"/>
@@ -1149,6 +1161,30 @@
           <color indexed="64"/>
         </bottom>
       </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <name val="Arial"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <border>
@@ -1190,6 +1226,13 @@
           <color indexed="64"/>
         </horizontal>
       </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
     </dxf>
     <dxf>
       <fill>
@@ -1252,17 +1295,17 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="表格2" displayName="表格2" ref="A1:F86" totalsRowShown="0" headerRowDxfId="23" dataDxfId="1" headerRowBorderDxfId="22" tableBorderDxfId="21" totalsRowBorderDxfId="20">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="表格2" displayName="表格2" ref="A1:F86" totalsRowShown="0" headerRowDxfId="22" dataDxfId="20" headerRowBorderDxfId="21" tableBorderDxfId="19" totalsRowBorderDxfId="18">
   <autoFilter ref="A1:F86"/>
   <tableColumns count="6">
-    <tableColumn id="1" name="序號" dataDxfId="7"/>
-    <tableColumn id="2" name="獎項" dataDxfId="6"/>
-    <tableColumn id="3" name="金額" dataDxfId="5"/>
-    <tableColumn id="4" name="工號" dataDxfId="4"/>
-    <tableColumn id="5" name="姓名" dataDxfId="3">
+    <tableColumn id="1" name="序號" dataDxfId="17"/>
+    <tableColumn id="2" name="獎項" dataDxfId="16"/>
+    <tableColumn id="3" name="金額" dataDxfId="15"/>
+    <tableColumn id="4" name="工號" dataDxfId="14"/>
+    <tableColumn id="5" name="姓名" dataDxfId="13">
       <calculatedColumnFormula>IFERROR(VLOOKUP(得獎名單!D2,人員名單資料庫!$A$2:$C$33,3,FALSE),"")</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="6" name="單位" dataDxfId="2">
+    <tableColumn id="6" name="單位" dataDxfId="12">
       <calculatedColumnFormula>IFERROR(VLOOKUP(得獎名單!D2,人員名單資料庫!$A$2:$C$33,2,FALSE),"")</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -1271,24 +1314,24 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="表格1" displayName="表格1" ref="A1:C10" totalsRowShown="0" headerRowDxfId="19" dataDxfId="17" headerRowBorderDxfId="18" tableBorderDxfId="16" totalsRowBorderDxfId="15">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="表格1" displayName="表格1" ref="A1:C10" totalsRowShown="0" headerRowDxfId="11" dataDxfId="9" headerRowBorderDxfId="10" tableBorderDxfId="8" totalsRowBorderDxfId="7">
   <autoFilter ref="A1:C10"/>
   <tableColumns count="3">
-    <tableColumn id="2" name="A (設定項目)" dataDxfId="14"/>
-    <tableColumn id="3" name="B (設定值)" dataDxfId="13"/>
-    <tableColumn id="4" name="C (說明 - 選填)" dataDxfId="12"/>
+    <tableColumn id="2" name="A (設定項目)" dataDxfId="6"/>
+    <tableColumn id="3" name="B (設定值)" dataDxfId="5"/>
+    <tableColumn id="4" name="C (說明 - 選填)" dataDxfId="4"/>
   </tableColumns>
   <tableStyleInfo name="表單回應 1-style" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="表格3" displayName="表格3" ref="A1:C33" totalsRowShown="0" dataDxfId="10">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="表格3" displayName="表格3" ref="A1:C33" totalsRowShown="0" dataDxfId="3">
   <autoFilter ref="A1:C33"/>
   <tableColumns count="3">
-    <tableColumn id="1" name="員工編號" dataDxfId="8"/>
-    <tableColumn id="2" name="單位名稱" dataDxfId="9"/>
-    <tableColumn id="3" name="中文姓名" dataDxfId="11"/>
+    <tableColumn id="1" name="員工編號" dataDxfId="2"/>
+    <tableColumn id="2" name="單位名稱" dataDxfId="1"/>
+    <tableColumn id="3" name="中文姓名" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight8" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -1495,7 +1538,7 @@
   <dimension ref="A1:F86"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="N21" sqref="N21"/>
+      <selection activeCell="E24" sqref="E24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
@@ -1539,7 +1582,7 @@
         <v>2000</v>
       </c>
       <c r="D2" s="25" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="E2" s="6" t="str">
         <f>IFERROR(VLOOKUP(得獎名單!D2,人員名單資料庫!$A$2:$C$33,3,FALSE),"")</f>
@@ -1561,7 +1604,7 @@
         <v>2000</v>
       </c>
       <c r="D3" s="25" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="E3" s="6" t="str">
         <f>IFERROR(VLOOKUP(得獎名單!D3,人員名單資料庫!$A$2:$C$33,3,FALSE),"")</f>
@@ -1583,7 +1626,7 @@
         <v>2000</v>
       </c>
       <c r="D4" s="25" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="E4" s="6" t="str">
         <f>IFERROR(VLOOKUP(得獎名單!D4,人員名單資料庫!$A$2:$C$33,3,FALSE),"")</f>
@@ -1605,7 +1648,7 @@
         <v>2000</v>
       </c>
       <c r="D5" s="19" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="E5" s="6" t="str">
         <f>IFERROR(VLOOKUP(得獎名單!D5,人員名單資料庫!$A$2:$C$33,3,FALSE),"")</f>
@@ -1627,7 +1670,7 @@
         <v>2000</v>
       </c>
       <c r="D6" s="19" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="E6" s="6" t="str">
         <f>IFERROR(VLOOKUP(得獎名單!D6,人員名單資料庫!$A$2:$C$33,3,FALSE),"")</f>
@@ -1649,7 +1692,7 @@
         <v>2000</v>
       </c>
       <c r="D7" s="19" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="E7" s="6" t="str">
         <f>IFERROR(VLOOKUP(得獎名單!D7,人員名單資料庫!$A$2:$C$33,3,FALSE),"")</f>
@@ -1671,7 +1714,7 @@
         <v>2000</v>
       </c>
       <c r="D8" s="19" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="E8" s="6" t="str">
         <f>IFERROR(VLOOKUP(得獎名單!D8,人員名單資料庫!$A$2:$C$33,3,FALSE),"")</f>
@@ -1693,7 +1736,7 @@
         <v>2000</v>
       </c>
       <c r="D9" s="19" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="E9" s="6" t="str">
         <f>IFERROR(VLOOKUP(得獎名單!D9,人員名單資料庫!$A$2:$C$33,3,FALSE),"")</f>
@@ -1715,7 +1758,7 @@
         <v>2000</v>
       </c>
       <c r="D10" s="19" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="E10" s="6" t="str">
         <f>IFERROR(VLOOKUP(得獎名單!D10,人員名單資料庫!$A$2:$C$33,3,FALSE),"")</f>
@@ -1737,7 +1780,7 @@
         <v>2000</v>
       </c>
       <c r="D11" s="19" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="E11" s="6" t="str">
         <f>IFERROR(VLOOKUP(得獎名單!D11,人員名單資料庫!$A$2:$C$33,3,FALSE),"")</f>
@@ -1759,7 +1802,7 @@
         <v>2000</v>
       </c>
       <c r="D12" s="19" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="E12" s="6" t="str">
         <f>IFERROR(VLOOKUP(得獎名單!D12,人員名單資料庫!$A$2:$C$33,3,FALSE),"")</f>
@@ -2561,7 +2604,7 @@
         <v>6000</v>
       </c>
       <c r="D52" s="19" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="E52" s="6" t="str">
         <f>IFERROR(VLOOKUP(得獎名單!D52,人員名單資料庫!$A$2:$C$33,3,FALSE),"")</f>
@@ -2583,7 +2626,7 @@
         <v>6000</v>
       </c>
       <c r="D53" s="19" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="E53" s="6" t="str">
         <f>IFERROR(VLOOKUP(得獎名單!D53,人員名單資料庫!$A$2:$C$33,3,FALSE),"")</f>
@@ -2605,7 +2648,7 @@
         <v>6000</v>
       </c>
       <c r="D54" s="19" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="E54" s="6" t="str">
         <f>IFERROR(VLOOKUP(得獎名單!D54,人員名單資料庫!$A$2:$C$33,3,FALSE),"")</f>
@@ -2627,7 +2670,7 @@
         <v>6000</v>
       </c>
       <c r="D55" s="19" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="E55" s="6" t="str">
         <f>IFERROR(VLOOKUP(得獎名單!D55,人員名單資料庫!$A$2:$C$33,3,FALSE),"")</f>
@@ -2649,7 +2692,7 @@
         <v>6000</v>
       </c>
       <c r="D56" s="19" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="E56" s="6" t="str">
         <f>IFERROR(VLOOKUP(得獎名單!D56,人員名單資料庫!$A$2:$C$33,3,FALSE),"")</f>
@@ -2671,7 +2714,7 @@
         <v>6000</v>
       </c>
       <c r="D57" s="19" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="E57" s="6" t="str">
         <f>IFERROR(VLOOKUP(得獎名單!D57,人員名單資料庫!$A$2:$C$33,3,FALSE),"")</f>
@@ -2973,7 +3016,7 @@
         <v>10000</v>
       </c>
       <c r="D72" s="19" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="E72" s="6" t="str">
         <f>IFERROR(VLOOKUP(得獎名單!D72,人員名單資料庫!$A$2:$C$33,3,FALSE),"")</f>
@@ -2995,7 +3038,7 @@
         <v>10000</v>
       </c>
       <c r="D73" s="19" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="E73" s="6" t="str">
         <f>IFERROR(VLOOKUP(得獎名單!D73,人員名單資料庫!$A$2:$C$33,3,FALSE),"")</f>
@@ -3017,7 +3060,7 @@
         <v>10000</v>
       </c>
       <c r="D74" s="19" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="E74" s="6" t="str">
         <f>IFERROR(VLOOKUP(得獎名單!D74,人員名單資料庫!$A$2:$C$33,3,FALSE),"")</f>
@@ -3039,7 +3082,7 @@
         <v>10000</v>
       </c>
       <c r="D75" s="19" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="E75" s="6" t="str">
         <f>IFERROR(VLOOKUP(得獎名單!D75,人員名單資料庫!$A$2:$C$33,3,FALSE),"")</f>
@@ -3061,7 +3104,7 @@
         <v>10000</v>
       </c>
       <c r="D76" s="19" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="E76" s="6" t="str">
         <f>IFERROR(VLOOKUP(得獎名單!D76,人員名單資料庫!$A$2:$C$33,3,FALSE),"")</f>
@@ -3083,7 +3126,7 @@
         <v>10000</v>
       </c>
       <c r="D77" s="19" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="E77" s="6" t="str">
         <f>IFERROR(VLOOKUP(得獎名單!D77,人員名單資料庫!$A$2:$C$33,3,FALSE),"")</f>
@@ -3105,7 +3148,7 @@
         <v>10000</v>
       </c>
       <c r="D78" s="19" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="E78" s="6" t="str">
         <f>IFERROR(VLOOKUP(得獎名單!D78,人員名單資料庫!$A$2:$C$33,3,FALSE),"")</f>
@@ -3127,7 +3170,7 @@
         <v>10000</v>
       </c>
       <c r="D79" s="19" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="E79" s="6" t="str">
         <f>IFERROR(VLOOKUP(得獎名單!D79,人員名單資料庫!$A$2:$C$33,3,FALSE),"")</f>
@@ -3149,7 +3192,7 @@
         <v>12000</v>
       </c>
       <c r="D80" s="19" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="E80" s="6" t="str">
         <f>IFERROR(VLOOKUP(得獎名單!D80,人員名單資料庫!$A$2:$C$33,3,FALSE),"")</f>
@@ -3171,7 +3214,7 @@
         <v>12000</v>
       </c>
       <c r="D81" s="19" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="E81" s="6" t="str">
         <f>IFERROR(VLOOKUP(得獎名單!D81,人員名單資料庫!$A$2:$C$33,3,FALSE),"")</f>
@@ -3193,7 +3236,7 @@
         <v>12000</v>
       </c>
       <c r="D82" s="19" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="E82" s="6" t="str">
         <f>IFERROR(VLOOKUP(得獎名單!D82,人員名單資料庫!$A$2:$C$33,3,FALSE),"")</f>
@@ -3215,7 +3258,7 @@
         <v>12000</v>
       </c>
       <c r="D83" s="19" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="E83" s="6" t="str">
         <f>IFERROR(VLOOKUP(得獎名單!D83,人員名單資料庫!$A$2:$C$33,3,FALSE),"")</f>
@@ -3237,7 +3280,7 @@
         <v>12000</v>
       </c>
       <c r="D84" s="19" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="E84" s="6" t="str">
         <f>IFERROR(VLOOKUP(得獎名單!D84,人員名單資料庫!$A$2:$C$33,3,FALSE),"")</f>
@@ -3259,7 +3302,7 @@
         <v>12000</v>
       </c>
       <c r="D85" s="19" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="E85" s="6" t="str">
         <f>IFERROR(VLOOKUP(得獎名單!D85,人員名單資料庫!$A$2:$C$33,3,FALSE),"")</f>
@@ -3281,7 +3324,7 @@
         <v>20000</v>
       </c>
       <c r="D86" s="19" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="E86" s="6" t="str">
         <f>IFERROR(VLOOKUP(得獎名單!D86,人員名單資料庫!$A$2:$C$33,3,FALSE),"")</f>
@@ -3295,7 +3338,7 @@
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <conditionalFormatting sqref="D2:D86">
-    <cfRule type="duplicateValues" dxfId="0" priority="1"/>
+    <cfRule type="duplicateValues" dxfId="23" priority="1"/>
   </conditionalFormatting>
   <dataValidations count="1">
     <dataValidation type="custom" errorStyle="warning" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="重複警告" error="此工號已經領過獎了，請勿重複輸入！" sqref="D2:D86">
@@ -3315,7 +3358,7 @@
   <dimension ref="A1:C10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
@@ -3353,7 +3396,7 @@
         <v>20</v>
       </c>
       <c r="B3" s="13" t="s">
-        <v>41</v>
+        <v>99</v>
       </c>
       <c r="C3" s="14" t="s">
         <v>21</v>
@@ -3361,13 +3404,13 @@
     </row>
     <row r="4" spans="1:3" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="17" t="s">
+        <v>37</v>
+      </c>
+      <c r="B4" s="17" t="s">
         <v>38</v>
       </c>
-      <c r="B4" s="17" t="s">
+      <c r="C4" s="18" t="s">
         <v>39</v>
-      </c>
-      <c r="C4" s="18" t="s">
-        <v>40</v>
       </c>
     </row>
     <row r="5" spans="1:3" ht="27" thickBot="1" x14ac:dyDescent="0.3">
@@ -3375,72 +3418,73 @@
         <v>22</v>
       </c>
       <c r="B5" s="13">
-        <v>1</v>
-      </c>
-      <c r="C5" s="14" t="s">
-        <v>23</v>
+        <v>0.5</v>
+      </c>
+      <c r="C5" s="18" t="s">
+        <v>98</v>
       </c>
     </row>
     <row r="6" spans="1:3" ht="27" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="13" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B6" s="13">
         <v>5</v>
       </c>
       <c r="C6" s="14" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="7" spans="1:3" ht="27" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A7" s="13" t="s">
+        <v>25</v>
+      </c>
+      <c r="B7" s="13" t="s">
         <v>26</v>
       </c>
-      <c r="B7" s="13" t="s">
+      <c r="C7" s="14" t="s">
         <v>27</v>
-      </c>
-      <c r="C7" s="14" t="s">
-        <v>28</v>
       </c>
     </row>
     <row r="8" spans="1:3" ht="27" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A8" s="13" t="s">
+        <v>28</v>
+      </c>
+      <c r="B8" s="13" t="s">
         <v>29</v>
       </c>
-      <c r="B8" s="13" t="s">
+      <c r="C8" s="14" t="s">
         <v>30</v>
-      </c>
-      <c r="C8" s="14" t="s">
-        <v>31</v>
       </c>
     </row>
     <row r="9" spans="1:3" ht="27" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A9" s="13" t="s">
+        <v>31</v>
+      </c>
+      <c r="B9" s="13" t="s">
         <v>32</v>
       </c>
-      <c r="B9" s="13" t="s">
+      <c r="C9" s="14" t="s">
         <v>33</v>
-      </c>
-      <c r="C9" s="14" t="s">
-        <v>34</v>
       </c>
     </row>
     <row r="10" spans="1:3" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A10" s="15" t="s">
+        <v>34</v>
+      </c>
+      <c r="B10" s="15" t="s">
         <v>35</v>
       </c>
-      <c r="B10" s="15" t="s">
+      <c r="C10" s="16" t="s">
         <v>36</v>
-      </c>
-      <c r="C10" s="16" t="s">
-        <v>37</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <tableParts count="1">
-    <tablePart r:id="rId1"/>
+    <tablePart r:id="rId2"/>
   </tableParts>
 </worksheet>
 </file>
@@ -3474,354 +3518,354 @@
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" s="19" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="B2" s="20" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="C2" s="20" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" s="19" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="B3" s="20" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="C3" s="20" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" s="19" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="B4" s="20" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="C4" s="20" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" s="19" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="B5" s="20" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="C5" s="20" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" s="19" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="B6" s="20" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="C6" s="20" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" s="19" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="B7" s="20" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="C7" s="20" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" s="19" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="B8" s="20" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="C8" s="20" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" s="19" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="B9" s="20" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="C9" s="20" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10" s="19" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="B10" s="20" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="C10" s="20" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11" s="19" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="B11" s="20" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="C11" s="20" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A12" s="19" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="B12" s="20" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="C12" s="20" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A13" s="19" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="B13" s="20" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="C13" s="20" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A14" s="19" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="B14" s="20" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="C14" s="20" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A15" s="19" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="B15" s="20" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="C15" s="20" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A16" s="19" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="B16" s="20" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="C16" s="20" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A17" s="19" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="B17" s="20" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="C17" s="20" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A18" s="19" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="B18" s="20" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="C18" s="20" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A19" s="19" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="B19" s="20" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="C19" s="20" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A20" s="19" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="B20" s="20" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="C20" s="20" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A21" s="19" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="B21" s="20" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="C21" s="20" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A22" s="19" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="B22" s="20" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="C22" s="20" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A23" s="19" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="B23" s="20" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="C23" s="20" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A24" s="19" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="B24" s="20" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="C24" s="20" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A25" s="19" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="B25" s="20" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="C25" s="20" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A26" s="19" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="B26" s="20" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="C26" s="20" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A27" s="19" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="B27" s="20" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="C27" s="20" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A28" s="19" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="B28" s="20" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="C28" s="20" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A29" s="19" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="B29" s="20" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="C29" s="20" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A30" s="19" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="B30" s="20" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="C30" s="20" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A31" s="19" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="B31" s="20" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="C31" s="20" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A32" s="19" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="B32" s="20" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="C32" s="20" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A33" s="19" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="B33" s="20" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="C33" s="20" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
     </row>
     <row r="34" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.25">
